--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail5 Features.xlsx
@@ -2897,7 +2897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,29 +2908,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2951,115 +2949,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3076,72 +3064,66 @@
         <v>2.589433564334977e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.042906082041907</v>
+        <v>1.1431540181986e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.1124514452635488</v>
+        <v>2.177247089376523e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.1431540181986e-06</v>
+        <v>-0.04702770925521185</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.177247089376523e-06</v>
+        <v>0.154429590018267</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04702770925521185</v>
+        <v>0.02598937523798019</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.154429590018267</v>
+        <v>1.694782462358536</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02598937523798019</v>
+        <v>1.244700182946859</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.614130025671576</v>
+        <v>4.320447309480421</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.244700182946859</v>
+        <v>1.426397904679911e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.320447309480421</v>
+        <v>9607286.237815944</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.426397904679911e-14</v>
+        <v>1.211516813573927e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9607286.237815944</v>
+        <v>1.316564536493023</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.211516813573927e-05</v>
+        <v>0.0002547931675991519</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1.316564536493023</v>
+        <v>13.09572209852689</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002547931675991519</v>
+        <v>1.095678296971271</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.09572209852689</v>
+        <v>0.04369650267676214</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.095678296971271</v>
+        <v>2.13774221227149</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.04369650267676214</v>
+        <v>0.9422655165598064</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.13774221227149</v>
+        <v>1.778654835198745</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9422655165598064</v>
+        <v>7</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.778654835198745</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1234364966642316</v>
       </c>
     </row>
@@ -3156,72 +3138,66 @@
         <v>2.406507538295822e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.8800397263463502</v>
+        <v>9.426065546141911e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4613045348336571</v>
+        <v>2.168027571761223e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.426065546141911e-07</v>
+        <v>-0.02642811633108247</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.168027571761223e-06</v>
+        <v>0.1551879216767255</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02642811633108247</v>
+        <v>0.02471962897497943</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1551879216767255</v>
+        <v>1.646693620944563</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02471962897497943</v>
+        <v>1.232230653452192</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.566202526693665</v>
+        <v>3.692450788353648</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.232230653452192</v>
+        <v>2.230965348643523e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.692450788353648</v>
+        <v>6260946.509814871</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.230965348643523e-14</v>
+        <v>1.812453958703164e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6260946.509814871</v>
+        <v>0.8745261731028308</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.812453958703164e-05</v>
+        <v>0.0002611820408439484</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0.8745261731028308</v>
+        <v>13.16687656013857</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002611820408439484</v>
+        <v>1.079051518184301</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.16687656013857</v>
+        <v>0.04528025241848854</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.079051518184301</v>
+        <v>2.025146188292628</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04528025241848854</v>
+        <v>0.9387772812844395</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.025146188292628</v>
+        <v>1.819552097332652</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9387772812844395</v>
+        <v>7</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.819552097332652</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1114118154850802</v>
       </c>
     </row>
@@ -3236,72 +3212,66 @@
         <v>2.328569698305345e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7955723676316975</v>
+        <v>8.166544124709935e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7236479371742699</v>
+        <v>2.164337171418696e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.166544124709935e-07</v>
+        <v>-0.004902379844385072</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.164337171418696e-06</v>
+        <v>0.1793906872592206</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.004902379844385072</v>
+        <v>0.0321495191018436</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1793906872592206</v>
+        <v>1.474107510885477</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0321495191018436</v>
+        <v>1.261141219411305</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.404290878707761</v>
+        <v>3.668401720058754</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.261141219411305</v>
+        <v>2.224182595568008e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.668401720058754</v>
+        <v>8557227.479442991</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.224182595568008e-14</v>
+        <v>1.012072298958806e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>8557227.479442991</v>
+        <v>1.628683108771099</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.012072298958806e-05</v>
+        <v>0.000255420506954002</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1.628683108771099</v>
+        <v>14.28641212781895</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000255420506954002</v>
+        <v>0.9540785987614311</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>14.28641212781895</v>
+        <v>0.05213172685903507</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.9540785987614311</v>
+        <v>1.836832849735933</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.05213172685903507</v>
+        <v>0.9290945793218108</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>1.836832849735933</v>
+        <v>1.829898712445315</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9290945793218108</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.829898712445315</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1167601189748899</v>
       </c>
     </row>
@@ -3316,72 +3286,66 @@
         <v>2.354610093974654e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.8367627781702025</v>
+        <v>9.332897175249181e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5727644996406802</v>
+        <v>2.165393373912985e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.332897175249181e-07</v>
+        <v>0.01299302410929669</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.165393373912985e-06</v>
+        <v>0.2007278342803273</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01299302410929669</v>
+        <v>0.04042561724478071</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2007278342803273</v>
+        <v>1.339815803859771</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04042561724478071</v>
+        <v>1.290282804866306</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.282942963169416</v>
+        <v>5.920978583053866</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.290282804866306</v>
+        <v>3.408904880704306e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.920978583053866</v>
+        <v>7455640.913395578</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.408904880704306e-14</v>
+        <v>9.246870159083554e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7455640.913395578</v>
+        <v>1.894893687366833</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.246870159083554e-06</v>
+        <v>0.0002259868529296774</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1.894893687366833</v>
+        <v>10.66336981083191</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002259868529296774</v>
+        <v>1.362998783579721</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.66336981083191</v>
+        <v>0.02569639007338228</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.362998783579721</v>
+        <v>2.51507034138411</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02569639007338228</v>
+        <v>0.9182072312758714</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.51507034138411</v>
+        <v>1.933116307342856</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9182072312758714</v>
+        <v>8</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.933116307342856</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1174421969172398</v>
       </c>
     </row>
@@ -3396,72 +3360,66 @@
         <v>2.469653725145934e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.016076032261392</v>
+        <v>1.063890571308458e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.1156874996107837</v>
+        <v>2.169934614276799e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.063890571308458e-06</v>
+        <v>0.02331792115396239</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.169934614276799e-06</v>
+        <v>0.2017790081327272</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02331792115396239</v>
+        <v>0.04124899247339114</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2017790081327272</v>
+        <v>1.307037134529274</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04124899247339114</v>
+        <v>1.228853303031239</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.247710290052714</v>
+        <v>4.615953402239334</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.228853303031239</v>
+        <v>8.060477884873237e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.615953402239334</v>
+        <v>3358876.375547205</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.060477884873237e-14</v>
+        <v>2.022305005203752e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3358876.375547205</v>
+        <v>0.9093871860132159</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.022305005203752e-05</v>
+        <v>0.0002447816127923381</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.9093871860132159</v>
+        <v>9.15609473489411</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002447816127923381</v>
+        <v>1.850002888440696</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.15609473489411</v>
+        <v>0.02052103905598942</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.850002888440696</v>
+        <v>2.614739632925211</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02052103905598942</v>
+        <v>0.9111514027967283</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.614739632925211</v>
+        <v>1.993447110671952</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9111514027967283</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.993447110671952</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1114630947038619</v>
       </c>
     </row>
@@ -3476,72 +3434,66 @@
         <v>2.630569441544289e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.216402461798154</v>
+        <v>1.116699961511125e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.8435669886499291</v>
+        <v>2.17636736783156e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.116699961511125e-06</v>
+        <v>0.02612547408582757</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.17636736783156e-06</v>
+        <v>0.1908425530249874</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.02612547408582757</v>
+        <v>0.03710316020702077</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1908425530249874</v>
+        <v>1.323351045635549</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03710316020702077</v>
+        <v>1.232955392312686</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.26137926534107</v>
+        <v>3.717265630551934</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.232955392312686</v>
+        <v>1.279333302530668e-13</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.717265630551934</v>
+        <v>2182510.683593455</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.279333302530668e-13</v>
+        <v>3.308009430725762e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2182510.683593455</v>
+        <v>0.6093915976206151</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.308009430725762e-05</v>
+        <v>0.0002098479533083986</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.6093915976206151</v>
+        <v>9.822302997676671</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002098479533083986</v>
+        <v>1.444443959873962</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.822302997676671</v>
+        <v>0.02024563449202089</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.444443959873962</v>
+        <v>2.57553045436044</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02024563449202089</v>
+        <v>0.9107634606464678</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.57553045436044</v>
+        <v>1.972515641551519</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9107634606464678</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.972515641551519</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1176555926889206</v>
       </c>
     </row>
@@ -3918,7 +3870,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.440771466658191</v>
+        <v>1.474001294050215</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.381819180768717</v>
@@ -4007,7 +3959,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.462812037946212</v>
+        <v>1.497703730920664</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.025897170648797</v>
@@ -4096,7 +4048,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.496678676004096</v>
+        <v>1.533930159554227</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.369129849816179</v>
@@ -4185,7 +4137,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.484024585540547</v>
+        <v>1.525664547471004</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.977786821833848</v>
@@ -4274,7 +4226,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53325171900771</v>
+        <v>1.576511880418865</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.399066473451869</v>
@@ -4363,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542134459231853</v>
+        <v>1.57945922658219</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.41695693862588</v>
@@ -4452,7 +4404,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.603277943359808</v>
+        <v>1.633053409442173</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.374479156613678</v>
@@ -4541,7 +4493,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.614204791039425</v>
+        <v>1.640023510895419</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.401506155891622</v>
@@ -4630,7 +4582,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.612841808153433</v>
+        <v>1.637927389918281</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.516731778633546</v>
@@ -4719,7 +4671,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.659389396205324</v>
+        <v>1.683294839732472</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.439100912122083</v>
@@ -4808,7 +4760,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.721079033003312</v>
+        <v>1.733699272720285</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.270028482098434</v>
@@ -4897,7 +4849,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.728050434464867</v>
+        <v>1.735148321086393</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.447279052563612</v>
@@ -4986,7 +4938,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.721222238687546</v>
+        <v>1.725488012616073</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.457004097061585</v>
@@ -5075,7 +5027,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.711121460856678</v>
+        <v>1.71515167965294</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.522042648211827</v>
@@ -5164,7 +5116,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.694472615089308</v>
+        <v>1.698611832120603</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.523027863159064</v>
@@ -5253,7 +5205,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.712445571147196</v>
+        <v>1.70203257873942</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.344590912242833</v>
@@ -5342,7 +5294,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.727787543510802</v>
+        <v>1.719317158210025</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.481091252899878</v>
@@ -5431,7 +5383,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.712521735755146</v>
+        <v>1.709860257497384</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.622213004805843</v>
@@ -5520,7 +5472,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.769258243492848</v>
+        <v>1.754610412588211</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.999968443969408</v>
@@ -5609,7 +5561,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.760280610656219</v>
+        <v>1.748607396808272</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.738095009968581</v>
@@ -5698,7 +5650,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.768782191596286</v>
+        <v>1.764041829722981</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.653691335108595</v>
@@ -5787,7 +5739,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.780014204850464</v>
+        <v>1.776564637983939</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.73585409752755</v>
@@ -5876,7 +5828,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.751531006196003</v>
+        <v>1.757734252961531</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.655544893997284</v>
@@ -5965,7 +5917,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.766395288123707</v>
+        <v>1.768836492874131</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.669624283196451</v>
@@ -6054,7 +6006,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.757857836215128</v>
+        <v>1.762912830066329</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.817442256086134</v>
@@ -6143,7 +6095,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.71884072852369</v>
+        <v>1.734680772050705</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.648662399353126</v>
@@ -6232,7 +6184,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.678191638626474</v>
+        <v>1.705404565053979</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.655018126278549</v>
@@ -6321,7 +6273,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.676764988032675</v>
+        <v>1.703418629412333</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.774229139733578</v>
@@ -6410,7 +6362,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.685092423279557</v>
+        <v>1.714446721826372</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.681184382333808</v>
@@ -6499,7 +6451,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.677719461562267</v>
+        <v>1.712239202700893</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.678170903606937</v>
@@ -6588,7 +6540,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.680825473735008</v>
+        <v>1.718349625908735</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.660942490985586</v>
@@ -6677,7 +6629,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.698864225301493</v>
+        <v>1.735442029968122</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.699162544147969</v>
@@ -6766,7 +6718,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.705616669264901</v>
+        <v>1.741382871770248</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.667649625036024</v>
@@ -6855,7 +6807,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.705956488319373</v>
+        <v>1.741575338539304</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.661824761753763</v>
@@ -6944,7 +6896,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.677584818723227</v>
+        <v>1.714885820169807</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.562069742259221</v>
@@ -7033,7 +6985,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.668360643366555</v>
+        <v>1.708495311901284</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.662932518742975</v>
@@ -7122,7 +7074,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.628592324673247</v>
+        <v>1.671137627974981</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.68756915285854</v>
@@ -7211,7 +7163,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630750094170806</v>
+        <v>1.670500220915638</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.592726631618039</v>
@@ -7300,7 +7252,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625094801018888</v>
+        <v>1.669455291707308</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.464881893973081</v>
@@ -7389,7 +7341,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.591370938925905</v>
+        <v>1.635992391709304</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.565170136527787</v>
@@ -7478,7 +7430,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.61523521917163</v>
+        <v>1.656765052379766</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.654194076983351</v>
@@ -7567,7 +7519,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647647267268781</v>
+        <v>1.683598715965212</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.434326554697009</v>
@@ -7656,7 +7608,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.647288605444286</v>
+        <v>1.680202111568448</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.603236525572487</v>
@@ -7745,7 +7697,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.650897360321089</v>
+        <v>1.681769315424626</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.56964698680951</v>
@@ -7834,7 +7786,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.6652182035299</v>
+        <v>1.691123672118424</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.566266374520731</v>
@@ -7923,7 +7875,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639452772669325</v>
+        <v>1.671415649760504</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.496275941178007</v>
@@ -8012,7 +7964,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.652896319857731</v>
+        <v>1.683470253044821</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.61124995844344</v>
@@ -8101,7 +8053,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.618538929743125</v>
+        <v>1.656022295321049</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.764958808383078</v>
@@ -8190,7 +8142,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585443571106985</v>
+        <v>1.622307897118263</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.55961791289255</v>
@@ -8279,7 +8231,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.599293002023701</v>
+        <v>1.644214261763218</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.599496515432212</v>
@@ -8368,7 +8320,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.604497368147494</v>
+        <v>1.647253153459788</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.482448091550119</v>
@@ -8654,7 +8606,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.61021405663908</v>
+        <v>1.588516403369922</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.642733882494972</v>
@@ -8743,7 +8695,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.607475921623892</v>
+        <v>1.584213512089563</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.643860146224699</v>
@@ -8832,7 +8784,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.582253867932946</v>
+        <v>1.549163737942068</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.514684845297201</v>
@@ -8921,7 +8873,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.526478871864642</v>
+        <v>1.493170695138025</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.413263838823813</v>
@@ -9010,7 +8962,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.539898550737285</v>
+        <v>1.50232704416283</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.563863719168133</v>
@@ -9099,7 +9051,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.543075062071637</v>
+        <v>1.501936078325095</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.507717041970912</v>
@@ -9188,7 +9140,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.56784212889484</v>
+        <v>1.521113304982104</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.609925233625529</v>
@@ -9277,7 +9229,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.546492638451134</v>
+        <v>1.486574088337855</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.499265300295759</v>
@@ -9366,7 +9318,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.554703439331474</v>
+        <v>1.524656014271539</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.005763412447914</v>
@@ -9455,7 +9407,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.547500482487063</v>
+        <v>1.520116993037762</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.034406231520388</v>
@@ -9544,7 +9496,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.569847904397949</v>
+        <v>1.540015226496855</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.049965497885228</v>
@@ -9633,7 +9585,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575520889583631</v>
+        <v>1.535341701674948</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.989084070813352</v>
@@ -9722,7 +9674,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.564276973438699</v>
+        <v>1.528571686110399</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.034725651646845</v>
@@ -9811,7 +9763,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.567528793128781</v>
+        <v>1.53101279235681</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.02364190855451</v>
@@ -9900,7 +9852,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568155488691215</v>
+        <v>1.527097859554559</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.041430869188576</v>
@@ -9989,7 +9941,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556449150381335</v>
+        <v>1.508570428628197</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.054405148340056</v>
@@ -10078,7 +10030,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.559132712239949</v>
+        <v>1.514892634463005</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.030638922255701</v>
@@ -10167,7 +10119,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5617421758949</v>
+        <v>1.516314397955644</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.032922689048357</v>
@@ -10256,7 +10208,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.567706443732096</v>
+        <v>1.519577238489135</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.036091376287491</v>
@@ -10345,7 +10297,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564266201048489</v>
+        <v>1.517779965160376</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.067017377613166</v>
@@ -10434,7 +10386,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.585775016584639</v>
+        <v>1.534231614111287</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.052552335820577</v>
@@ -10523,7 +10475,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.577282593762128</v>
+        <v>1.519964633533873</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.067587534707098</v>
@@ -10612,7 +10564,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589660056933888</v>
+        <v>1.53287122524143</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.960467710143155</v>
@@ -10701,7 +10653,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59761513162593</v>
+        <v>1.498625955571631</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.243278431709467</v>
@@ -10790,7 +10742,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.589326901419388</v>
+        <v>1.497273720378129</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.820773982151569</v>
@@ -10879,7 +10831,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.589955161698258</v>
+        <v>1.494417419960148</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.755595020031469</v>
@@ -10968,7 +10920,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.598688934203822</v>
+        <v>1.511356448363825</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.770729107072091</v>
@@ -11057,7 +11009,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.5998091796258</v>
+        <v>1.509722748095796</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.080595357735126</v>
@@ -11146,7 +11098,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.592157344937077</v>
+        <v>1.503307781330933</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.838189931409514</v>
@@ -11235,7 +11187,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585331514466394</v>
+        <v>1.500485850976336</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.851984581439506</v>
@@ -11324,7 +11276,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.569842773980719</v>
+        <v>1.495333791065308</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.496465160641478</v>
@@ -11413,7 +11365,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.549028312853803</v>
+        <v>1.486430615182435</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.661270703692068</v>
@@ -11502,7 +11454,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.551311637520242</v>
+        <v>1.492593801012098</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.562591396951484</v>
@@ -11591,7 +11543,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.529871749709914</v>
+        <v>1.472228485834159</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.432827290601173</v>
@@ -11680,7 +11632,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.538764093583294</v>
+        <v>1.480234460494688</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.574794519377806</v>
@@ -11769,7 +11721,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.53036047411444</v>
+        <v>1.476778814352118</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.325345088911696</v>
@@ -11858,7 +11810,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.524297588457668</v>
+        <v>1.478959360711897</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.446358543335896</v>
@@ -11947,7 +11899,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.524222524570193</v>
+        <v>1.480271979996979</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.372504086490074</v>
@@ -12036,7 +11988,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.5173116590124</v>
+        <v>1.473299543565828</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.572550269487452</v>
@@ -12125,7 +12077,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.522461069298758</v>
+        <v>1.473662452008769</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.481432487240055</v>
@@ -12214,7 +12166,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.518573095312248</v>
+        <v>1.470366949887779</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.392468757252132</v>
@@ -12303,7 +12255,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519450902969981</v>
+        <v>1.469197102475326</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.457332771697611</v>
@@ -12392,7 +12344,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.523113119614363</v>
+        <v>1.473167571581923</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.315968172866721</v>
@@ -12481,7 +12433,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.53213996361368</v>
+        <v>1.483898196378906</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.49681981783648</v>
@@ -12570,7 +12522,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.543440046022291</v>
+        <v>1.486635878266936</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.271518045506678</v>
@@ -12659,7 +12611,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.549805193968634</v>
+        <v>1.4879565933697</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.577023676941999</v>
@@ -12748,7 +12700,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.549746836461731</v>
+        <v>1.48905943739435</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.622033439948017</v>
@@ -12837,7 +12789,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.587333730151824</v>
+        <v>1.52385100767717</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.409379314549537</v>
@@ -12926,7 +12878,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.591165541634582</v>
+        <v>1.533820342975106</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.748744552392755</v>
@@ -13015,7 +12967,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.616705319130252</v>
+        <v>1.559718956524848</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.684805754449124</v>
@@ -13104,7 +13056,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.614055616199302</v>
+        <v>1.564496269006323</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.746112957502727</v>
@@ -13390,7 +13342,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.742455439396334</v>
+        <v>1.678090119638292</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.344889696197965</v>
@@ -13479,7 +13431,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.743503156389573</v>
+        <v>1.685540291297382</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.376236257493194</v>
@@ -13568,7 +13520,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.740933932475581</v>
+        <v>1.680634140817857</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.199765724416756</v>
@@ -13657,7 +13609,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.721628301995617</v>
+        <v>1.665962650078818</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.071031377885643</v>
@@ -13746,7 +13698,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.731219385405774</v>
+        <v>1.678645882548299</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.979553032598193</v>
@@ -13835,7 +13787,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.726044433312344</v>
+        <v>1.658792561561772</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.033463237905442</v>
@@ -13924,7 +13876,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.729004315381825</v>
+        <v>1.651775916723565</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.042109228293501</v>
@@ -14013,7 +13965,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.726115767781261</v>
+        <v>1.63769183016258</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.038243890054847</v>
@@ -14102,7 +14054,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.715764701739783</v>
+        <v>1.658677241079612</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.192908194456963</v>
@@ -14191,7 +14143,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.712976550334882</v>
+        <v>1.666505294414864</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.176399555127234</v>
@@ -14280,7 +14232,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.718217278074524</v>
+        <v>1.664155101968354</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.179633404198587</v>
@@ -14369,7 +14321,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.7164370351111</v>
+        <v>1.655783698940765</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.19264981039824</v>
@@ -14458,7 +14410,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.714791881151407</v>
+        <v>1.650441346935837</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.192167850871007</v>
@@ -14547,7 +14499,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.716707147037072</v>
+        <v>1.652146809469988</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.188833423631395</v>
@@ -14636,7 +14588,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.711414470660164</v>
+        <v>1.640828083192304</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.182724503599323</v>
@@ -14725,7 +14677,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.703333828942031</v>
+        <v>1.626142898462179</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.218868163488274</v>
@@ -14814,7 +14766,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.702859678327111</v>
+        <v>1.624581378590308</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.230962739447079</v>
@@ -14903,7 +14855,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.700551953735594</v>
+        <v>1.615021788429143</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.201265559179756</v>
@@ -14992,7 +14944,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.709739408168901</v>
+        <v>1.623355838469881</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.229397908793184</v>
@@ -15081,7 +15033,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.712096698061353</v>
+        <v>1.629901807350749</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.202360822421312</v>
@@ -15170,7 +15122,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.717065738612158</v>
+        <v>1.641222254413453</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.253584400254219</v>
@@ -15259,7 +15211,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.709599942707527</v>
+        <v>1.63607454980717</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.24849444274006</v>
@@ -15348,7 +15300,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.716904818606469</v>
+        <v>1.641079715019985</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.168780876055233</v>
@@ -15437,7 +15389,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.719210542867538</v>
+        <v>1.60687673657069</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.276085568521661</v>
@@ -15526,7 +15478,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.715657980592098</v>
+        <v>1.601957362672734</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.628355814514152</v>
@@ -15615,7 +15567,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.714387350202905</v>
+        <v>1.608080637813635</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.798880883736759</v>
@@ -15704,7 +15656,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.713097807833583</v>
+        <v>1.612501417739622</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.576266539366386</v>
@@ -15793,7 +15745,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.702510338655779</v>
+        <v>1.604430927558661</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.831352973993283</v>
@@ -15882,7 +15834,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.697436479682033</v>
+        <v>1.602278891014844</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.56198955319312</v>
@@ -15971,7 +15923,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.693124186005479</v>
+        <v>1.604051322369511</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.99085612785937</v>
@@ -16060,7 +16012,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.702103407284662</v>
+        <v>1.623619617661861</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.789595117490191</v>
@@ -16149,7 +16101,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.715875145380599</v>
+        <v>1.642973226862905</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.299448492204703</v>
@@ -16238,7 +16190,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719872164261134</v>
+        <v>1.654469780358143</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.479006911655727</v>
@@ -16327,7 +16279,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.720238050529844</v>
+        <v>1.651673368354703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.773235882124115</v>
@@ -16416,7 +16368,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723065729159018</v>
+        <v>1.646499589856128</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.422484944596009</v>
@@ -16505,7 +16457,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.722734020599825</v>
+        <v>1.653520180538099</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.671566787913012</v>
@@ -16594,7 +16546,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.738030254577944</v>
+        <v>1.669078545535424</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.886177585681743</v>
@@ -16683,7 +16635,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.743499128285755</v>
+        <v>1.684944889033348</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.753868551809369</v>
@@ -16772,7 +16724,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.758480441105326</v>
+        <v>1.703116846831519</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.616829537930772</v>
@@ -16861,7 +16813,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.748047682010783</v>
+        <v>1.689229704254166</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.617194399917121</v>
@@ -16950,7 +16902,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.749414557185769</v>
+        <v>1.676971263403596</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.478627325760393</v>
@@ -17039,7 +16991,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.753818045429785</v>
+        <v>1.663810186760881</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.659412090681565</v>
@@ -17128,7 +17080,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.740246677438093</v>
+        <v>1.651069515931961</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.522508288192597</v>
@@ -17217,7 +17169,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.747981722838233</v>
+        <v>1.658889173454132</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.10498268886053</v>
@@ -17306,7 +17258,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.76065514710875</v>
+        <v>1.661247874505756</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.83434045192224</v>
@@ -17395,7 +17347,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.750118454885611</v>
+        <v>1.648698568165917</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.166253334660604</v>
@@ -17484,7 +17436,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.74662179665031</v>
+        <v>1.641411419219607</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.891230853611194</v>
@@ -17573,7 +17525,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.750097024847409</v>
+        <v>1.646435410565334</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.215352065796772</v>
@@ -17662,7 +17614,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.743535952576586</v>
+        <v>1.639108755946727</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.865918664343457</v>
@@ -17751,7 +17703,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.744040712752398</v>
+        <v>1.640143547831008</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.149671410732406</v>
@@ -17840,7 +17792,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.754052495595481</v>
+        <v>1.6475645505982</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.760800380730677</v>
@@ -18126,7 +18078,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.724943188479542</v>
+        <v>1.707052624787779</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.109928838015826</v>
@@ -18215,7 +18167,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.727541460115295</v>
+        <v>1.714831984327408</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.136303070799918</v>
@@ -18304,7 +18256,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.73257723921388</v>
+        <v>1.723962382922635</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.084301607142106</v>
@@ -18393,7 +18345,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.751235828807209</v>
+        <v>1.713511496061011</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.749110100884065</v>
@@ -18482,7 +18434,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.770947822665089</v>
+        <v>1.739210515330846</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.163508099987495</v>
@@ -18571,7 +18523,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.77884290253763</v>
+        <v>1.739967193047765</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.081991447959752</v>
@@ -18660,7 +18612,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.78255828865141</v>
+        <v>1.746048797881682</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.236784428209862</v>
@@ -18749,7 +18701,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.773293387184765</v>
+        <v>1.730609955403416</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.87807023973839</v>
@@ -18838,7 +18790,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.76937249430715</v>
+        <v>1.749937853255796</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.352565131220234</v>
@@ -18927,7 +18879,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.767275579080927</v>
+        <v>1.749338834964432</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.362514615828333</v>
@@ -19016,7 +18968,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.772274465967823</v>
+        <v>1.750832523764974</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.448531609242591</v>
@@ -19105,7 +19057,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.77188297357972</v>
+        <v>1.749243675476672</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.425975203619894</v>
@@ -19194,7 +19146,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.771076397125726</v>
+        <v>1.745422743578554</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.426783435797176</v>
@@ -19283,7 +19235,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.769337974506303</v>
+        <v>1.745615904338337</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.429670761362852</v>
@@ -19372,7 +19324,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.765526174707654</v>
+        <v>1.742337834664335</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.424264654170328</v>
@@ -19461,7 +19413,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.754756743358151</v>
+        <v>1.726494417293102</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.397576173394802</v>
@@ -19550,7 +19502,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.755994375442827</v>
+        <v>1.731155467327989</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.467092919995447</v>
@@ -19639,7 +19591,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.753911996900565</v>
+        <v>1.727376333534451</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.453582065859906</v>
@@ -19728,7 +19680,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.754044743894408</v>
+        <v>1.728798068047656</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.38427813321526</v>
@@ -19817,7 +19769,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.749786979973236</v>
+        <v>1.721498757127438</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.409662408787449</v>
@@ -19906,7 +19858,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.75330857013142</v>
+        <v>1.726166294242789</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.315799216883969</v>
@@ -19995,7 +19947,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.760510472092502</v>
+        <v>1.732604276825229</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.341606865754165</v>
@@ -20084,7 +20036,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.767781398589674</v>
+        <v>1.744887403283978</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.355103386362523</v>
@@ -20173,7 +20125,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.777374733001914</v>
+        <v>1.724394318819438</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.085588749061584</v>
@@ -20262,7 +20214,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.778061558110646</v>
+        <v>1.726998233882666</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.032555582507341</v>
@@ -20351,7 +20303,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.772405050439427</v>
+        <v>1.725567884134307</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.193890555238815</v>
@@ -20440,7 +20392,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.774133866438536</v>
+        <v>1.725602062311512</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.405925268657024</v>
@@ -20529,7 +20481,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.771109789346154</v>
+        <v>1.72415933919603</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.053273812984425</v>
@@ -20618,7 +20570,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.766785532189182</v>
+        <v>1.719112663668754</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.314437331033333</v>
@@ -20707,7 +20659,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.766392446291875</v>
+        <v>1.723625224388237</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.005816623491665</v>
@@ -20796,7 +20748,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.773668510626585</v>
+        <v>1.736868371339306</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.156694873982386</v>
@@ -20885,7 +20837,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.777978501345328</v>
+        <v>1.743896646760787</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.222886161866766</v>
@@ -20974,7 +20926,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.780121377282684</v>
+        <v>1.749784764291097</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.208059111236268</v>
@@ -21063,7 +21015,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.774568418314595</v>
+        <v>1.744146576451484</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.185639930414723</v>
@@ -21152,7 +21104,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.77781775319566</v>
+        <v>1.749278742369116</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.061110522165994</v>
@@ -21241,7 +21193,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.781407628304602</v>
+        <v>1.758974827670798</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.810117498645716</v>
@@ -21330,7 +21282,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.773171458682664</v>
+        <v>1.754680811921885</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.943983667167369</v>
@@ -21419,7 +21371,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.775780894407935</v>
+        <v>1.758043365998645</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.27210766665424</v>
@@ -21508,7 +21460,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.783729768317837</v>
+        <v>1.762262216618732</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.81251278640947</v>
@@ -21597,7 +21549,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.772892607589501</v>
+        <v>1.7484626308621</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.941465056549067</v>
@@ -21686,7 +21638,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.778395862566276</v>
+        <v>1.747037224052016</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.100247157659906</v>
@@ -21775,7 +21727,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.782857965892862</v>
+        <v>1.743703723684296</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.260505896029014</v>
@@ -21864,7 +21816,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.790160565030161</v>
+        <v>1.746274665485997</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.73058825999358</v>
@@ -21953,7 +21905,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.795306379060883</v>
+        <v>1.745036778724723</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.996256018844648</v>
@@ -22042,7 +21994,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.803070727411711</v>
+        <v>1.741347748325886</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.259947583748748</v>
@@ -22131,7 +22083,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.804560599352372</v>
+        <v>1.752155827920318</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.324668613352384</v>
@@ -22220,7 +22172,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.818089851047907</v>
+        <v>1.760554022479109</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.199450366337557</v>
@@ -22309,7 +22261,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.821320705071654</v>
+        <v>1.764456358247471</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.102380478592403</v>
@@ -22398,7 +22350,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.81665370879374</v>
+        <v>1.759967733283827</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.058529114329388</v>
@@ -22487,7 +22439,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.819832545214242</v>
+        <v>1.765173727513672</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.275825303105536</v>
@@ -22576,7 +22528,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.825665367088895</v>
+        <v>1.770040364792434</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.155952665297636</v>
@@ -22862,7 +22814,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.656906692704538</v>
+        <v>1.660601415936144</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.976212689296387</v>
@@ -22951,7 +22903,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.666375209455475</v>
+        <v>1.665442510475932</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.937714768365379</v>
@@ -23040,7 +22992,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.681285091483538</v>
+        <v>1.673506391584394</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.949773442074385</v>
@@ -23129,7 +23081,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.606618219717343</v>
+        <v>1.581382950038153</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.298047680730626</v>
@@ -23218,7 +23170,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.634495550388336</v>
+        <v>1.608080673315072</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.878296564139228</v>
@@ -23307,7 +23259,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.645694781179367</v>
+        <v>1.617478264964637</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.847033950932738</v>
@@ -23396,7 +23348,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.654471401033465</v>
+        <v>1.621599646253078</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.81256403202129</v>
@@ -23485,7 +23437,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.613854285354011</v>
+        <v>1.571603701038885</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.786199436240485</v>
@@ -23574,7 +23526,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.64554800516185</v>
+        <v>1.648223685644937</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.986523517375087</v>
@@ -23663,7 +23615,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.631996897608978</v>
+        <v>1.629397137590884</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.005861110956707</v>
@@ -23752,7 +23704,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.651790213181403</v>
+        <v>1.644260593792709</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.991552336026644</v>
@@ -23841,7 +23793,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652190449373286</v>
+        <v>1.644533891504146</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.974876745745319</v>
@@ -23930,7 +23882,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.64600523213553</v>
+        <v>1.63669716016086</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.972138525458994</v>
@@ -24019,7 +23971,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.642213501467624</v>
+        <v>1.637375810832131</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.994984366043736</v>
@@ -24108,7 +24060,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.645704985485622</v>
+        <v>1.636690334857311</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.974428057166653</v>
@@ -24197,7 +24149,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.639997604437719</v>
+        <v>1.62867451376285</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.983143673221128</v>
@@ -24286,7 +24238,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635603049055109</v>
+        <v>1.628091012703107</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.992601773224411</v>
@@ -24375,7 +24327,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.635444595823926</v>
+        <v>1.625193895146908</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.966441347292707</v>
@@ -24464,7 +24416,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.643954024409246</v>
+        <v>1.632251748424712</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.977739248550338</v>
@@ -24553,7 +24505,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.626082614214718</v>
+        <v>1.612863707974291</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.964061342843036</v>
@@ -24642,7 +24594,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.634213961078888</v>
+        <v>1.620105755453678</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.976062371032866</v>
@@ -24731,7 +24683,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.636442100250527</v>
+        <v>1.613899691419002</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.954091973641872</v>
@@ -24820,7 +24772,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.663148763329779</v>
+        <v>1.638257479482452</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.95460968896524</v>
@@ -24909,7 +24861,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.635212902365446</v>
+        <v>1.550567393811458</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.432142945247788</v>
@@ -24998,7 +24950,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.64326883887562</v>
+        <v>1.569653608344696</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.019045501701388</v>
@@ -25087,7 +25039,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.648274826648523</v>
+        <v>1.571187485378811</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.557881545945714</v>
@@ -25176,7 +25128,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.646119217888737</v>
+        <v>1.574908667228567</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.833768657961079</v>
@@ -25265,7 +25217,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639998893095866</v>
+        <v>1.572836874798033</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.992802416352871</v>
@@ -25354,7 +25306,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.631780371689076</v>
+        <v>1.567954075926248</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.928140760949306</v>
@@ -25443,7 +25395,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.629860121550025</v>
+        <v>1.573330755214722</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.045376550044099</v>
@@ -25532,7 +25484,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619043148873765</v>
+        <v>1.567543526176448</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.077888841680337</v>
@@ -25621,7 +25573,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.61500239455084</v>
+        <v>1.566140034748072</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.026389999255039</v>
@@ -25710,7 +25662,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610513168016459</v>
+        <v>1.566303342064128</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.960861542207865</v>
@@ -25799,7 +25751,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.594956635107227</v>
+        <v>1.556672564048898</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.739384153398313</v>
@@ -25888,7 +25840,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.608417772358215</v>
+        <v>1.573007326207746</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.850926265323265</v>
@@ -25977,7 +25929,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.611318641542188</v>
+        <v>1.582746231961397</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.022636298411777</v>
@@ -26066,7 +26018,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.59764653715601</v>
+        <v>1.581238735162787</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.978994837176782</v>
@@ -26155,7 +26107,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.592796120434107</v>
+        <v>1.579445535324441</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.012601054731921</v>
@@ -26244,7 +26196,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594246965744932</v>
+        <v>1.576734604450253</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.887211618613622</v>
@@ -26333,7 +26285,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.586732851931884</v>
+        <v>1.570128453717487</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.976923885162162</v>
@@ -26422,7 +26374,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.598510712996266</v>
+        <v>1.582185963491957</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.910435414909045</v>
@@ -26511,7 +26463,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.610341615648062</v>
+        <v>1.587634329016552</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.881481027378534</v>
@@ -26600,7 +26552,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.611352313857933</v>
+        <v>1.590812258677047</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.033845502698517</v>
@@ -26689,7 +26641,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.614673231782097</v>
+        <v>1.587617647650379</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.077312001450385</v>
@@ -26778,7 +26730,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.610849103877145</v>
+        <v>1.579969318467268</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.472357095265065</v>
@@ -26867,7 +26819,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626307157269019</v>
+        <v>1.593036260454087</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.724296192096565</v>
@@ -26956,7 +26908,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.627611848646038</v>
+        <v>1.593826380917259</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.88820293154307</v>
@@ -27045,7 +26997,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.640272588649508</v>
+        <v>1.605435233854048</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.656053350252849</v>
@@ -27134,7 +27086,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.640802542009047</v>
+        <v>1.607768205562141</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.03750411582645</v>
@@ -27223,7 +27175,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.656675753481577</v>
+        <v>1.628095395713454</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.981682494860776</v>
@@ -27312,7 +27264,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.660135421415362</v>
+        <v>1.627870579309411</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.966119913820745</v>
@@ -27598,7 +27550,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.542683328213886</v>
+        <v>1.590674051407844</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.707516539606344</v>
@@ -27687,7 +27639,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561513659551082</v>
+        <v>1.615743138774305</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.292236273244398</v>
@@ -27776,7 +27728,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.614040854817741</v>
+        <v>1.668626920583254</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.554475520249008</v>
@@ -27865,7 +27817,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.549337229977937</v>
+        <v>1.605924555041639</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.953341136124761</v>
@@ -27954,7 +27906,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.592513837013175</v>
+        <v>1.653383275488991</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.02856938887038</v>
@@ -28043,7 +27995,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.592571892384123</v>
+        <v>1.653840031232445</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.051501850791737</v>
@@ -28132,7 +28084,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.641144482735065</v>
+        <v>1.705630368200429</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.035372429090589</v>
@@ -28221,7 +28173,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.650201880285868</v>
+        <v>1.712012119707086</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.046032855417224</v>
@@ -28310,7 +28262,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.644723278162807</v>
+        <v>1.708869287706013</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.104127024682268</v>
@@ -28399,7 +28351,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.666540740678971</v>
+        <v>1.728788612395937</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.065743414719035</v>
@@ -28488,7 +28440,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.695384757062354</v>
+        <v>1.754344386549988</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.026577236721606</v>
@@ -28577,7 +28529,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.697143159135474</v>
+        <v>1.755651342159235</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.04787315425478</v>
@@ -28666,7 +28618,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.701941998685428</v>
+        <v>1.760727302895167</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.064544419838548</v>
@@ -28755,7 +28707,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.691147794624268</v>
+        <v>1.750170068466022</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.06079746334599</v>
@@ -28844,7 +28796,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677092510800789</v>
+        <v>1.733282614711701</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.092267619572372</v>
@@ -28933,7 +28885,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.685202884072771</v>
+        <v>1.731791903780212</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.020863605274817</v>
@@ -29022,7 +28974,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.693581903417213</v>
+        <v>1.739398760551447</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.061857878285194</v>
@@ -29111,7 +29063,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.681645106452092</v>
+        <v>1.731947984568007</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.041980146976295</v>
@@ -29200,7 +29152,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.812326968106211</v>
+        <v>1.840968676616699</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.861622371875921</v>
@@ -29289,7 +29241,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.815054809316542</v>
+        <v>1.8383801016747</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.244435999099632</v>
@@ -29378,7 +29330,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.82200343551148</v>
+        <v>1.842731620543755</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.028412445046539</v>
@@ -29467,7 +29419,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.826288459589688</v>
+        <v>1.845871654573604</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.190764121132038</v>
@@ -29556,7 +29508,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.79193822878557</v>
+        <v>1.821482421178756</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.024763020609332</v>
@@ -29645,7 +29597,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.812531342387057</v>
+        <v>1.831393614848716</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.635345000404827</v>
@@ -29734,7 +29686,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.807952298947272</v>
+        <v>1.829864147141656</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.912610687403429</v>
@@ -29823,7 +29775,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.773179588615361</v>
+        <v>1.798202924599327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.834249265637399</v>
@@ -29912,7 +29864,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.739551217278998</v>
+        <v>1.767511020863666</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.971692360886003</v>
@@ -30001,7 +29953,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.732342538237441</v>
+        <v>1.758704029952667</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.042548373559619</v>
@@ -30090,7 +30042,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.733336082383927</v>
+        <v>1.759607086575723</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.864336910593285</v>
@@ -30179,7 +30131,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.714728083822731</v>
+        <v>1.745722518048743</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.784321658759881</v>
@@ -30268,7 +30220,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.712140909734111</v>
+        <v>1.748032254155508</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.771281512722583</v>
@@ -30357,7 +30309,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.722844175936032</v>
+        <v>1.75652355662411</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.784699202320918</v>
@@ -30446,7 +30398,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.715478521212326</v>
+        <v>1.743743564085845</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.869204612419853</v>
@@ -30535,7 +30487,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.712661761825621</v>
+        <v>1.743175802133379</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.692623081147602</v>
@@ -30624,7 +30576,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.67381525344237</v>
+        <v>1.706466252895777</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.730765647969536</v>
@@ -30713,7 +30665,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667369265253996</v>
+        <v>1.705001240372362</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.662599180501673</v>
@@ -30802,7 +30754,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.6340253588214</v>
+        <v>1.675554501498032</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.731537049560899</v>
@@ -30891,7 +30843,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.64311830997045</v>
+        <v>1.681171466154237</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.574908928168811</v>
@@ -30980,7 +30932,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.639945283110017</v>
+        <v>1.683504655346267</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.532214038937411</v>
@@ -31069,7 +31021,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.611546334881274</v>
+        <v>1.654640718305668</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.647568911869465</v>
@@ -31158,7 +31110,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.636069085347371</v>
+        <v>1.677636114945552</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.678650666094765</v>
@@ -31247,7 +31199,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662345065128725</v>
+        <v>1.70334854401697</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.583481384382165</v>
@@ -31336,7 +31288,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.663984446271658</v>
+        <v>1.70279361597497</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.602555274236301</v>
@@ -31425,7 +31377,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.666476853716299</v>
+        <v>1.706526249101036</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.591338403920509</v>
@@ -31514,7 +31466,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.698282050567776</v>
+        <v>1.733815733565315</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.847612504193706</v>
@@ -31603,7 +31555,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.662174353340284</v>
+        <v>1.699017727179293</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.729716570257297</v>
@@ -31692,7 +31644,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.664943838537979</v>
+        <v>1.703472256744488</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.771742319976475</v>
@@ -31781,7 +31733,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.647931649834278</v>
+        <v>1.695246255103964</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.968298540838604</v>
@@ -31870,7 +31822,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63094136422261</v>
+        <v>1.674678996243961</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.915229604013559</v>
@@ -31959,7 +31911,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.655735771318508</v>
+        <v>1.703472046659304</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.881287081428513</v>
@@ -32048,7 +32000,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.66124489994047</v>
+        <v>1.705069549574594</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.768188927449298</v>
